--- a/results/mp/logistic/corona/confidence/168/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,6 +85,12 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -94,88 +103,88 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
@@ -187,28 +196,34 @@
     <t>protect</t>
   </si>
   <si>
-    <t>our</t>
+    <t>you</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
-    <t>you</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
+    <t>corona</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>to</t>
@@ -569,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8648648648648649</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -688,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,31 +721,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -788,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8116438356164384</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
@@ -888,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6190476190476191</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.9033942558746736</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5562015503875969</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C9">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8983050847457628</v>
+        <v>0.890625</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5490196078431373</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8877284595300261</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C11">
         <v>25</v>
@@ -1056,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3027777777777778</v>
+        <v>0.4026845637583892</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.302013422818792</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8802816901408451</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1349206349206349</v>
+        <v>0.2972222222222222</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L14">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1072386058981233</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.8679245283018868</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,37 +1303,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01193933526944176</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3062</v>
+        <v>335</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.8448275862068966</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,37 +1353,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00722233066562561</v>
+        <v>0.01553900938815151</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="F17">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>5086</v>
+        <v>3041</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.8297872340425532</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,12 +1395,36 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.01370510396975425</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>0.48</v>
+      </c>
+      <c r="F18">
+        <v>0.52</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2087</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>0.8292682926829268</v>
@@ -1410,8 +1449,32 @@
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01270110076206605</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>0.36</v>
+      </c>
+      <c r="F19">
+        <v>0.64</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2332</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>0.8205128205128205</v>
@@ -1436,43 +1499,67 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.008040792312218083</v>
+      </c>
+      <c r="C20">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>107</v>
+      </c>
+      <c r="E20">
+        <v>0.62</v>
+      </c>
+      <c r="F20">
+        <v>0.38</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5058</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1484,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1510,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1536,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.7382352941176471</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1562,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.7210884353741497</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="L25">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="M25">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1585,50 +1672,50 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.7196652719665272</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L26">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M26">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1640,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.6914893617021277</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1666,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.6615384615384615</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1692,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.651685393258427</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1718,12 +1805,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>0.6142857142857143</v>
@@ -1749,42 +1836,42 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L32">
         <v>25</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1796,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1822,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.4657534246575342</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1848,267 +1935,345 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.05980861244019139</v>
+        <v>0.06187290969899666</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>393</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.05118829981718465</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.03842940685045948</v>
+        <v>0.02848423194303154</v>
       </c>
       <c r="L38">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1151</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.01766561514195584</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1557</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.01652271873826511</v>
+        <v>0.02557352388115833</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="N40">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="O40">
-        <v>0.1899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2619</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.01313628899835796</v>
+        <v>0.02149178255372946</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N41">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="O41">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2404</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.0108499095840868</v>
+        <v>0.01699181875393329</v>
       </c>
       <c r="L42">
         <v>54</v>
       </c>
       <c r="M42">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N42">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="O42">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4923</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.0103480714957667</v>
+        <v>0.01645413410119292</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="O43">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3156</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.008592661402693916</v>
+        <v>0.01548117154811715</v>
       </c>
       <c r="L44">
         <v>37</v>
       </c>
       <c r="M44">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.63</v>
+        <v>0.9</v>
       </c>
       <c r="O44">
-        <v>0.37</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>4269</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.008190327613104524</v>
+        <v>0.01407035175879397</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M45">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N45">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="O45">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>5086</v>
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>0.01288056206088993</v>
+      </c>
+      <c r="L46">
+        <v>66</v>
+      </c>
+      <c r="M46">
+        <v>107</v>
+      </c>
+      <c r="N46">
+        <v>0.62</v>
+      </c>
+      <c r="O46">
+        <v>0.38</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47">
+        <v>0.01277199621570482</v>
+      </c>
+      <c r="L47">
+        <v>27</v>
+      </c>
+      <c r="M47">
+        <v>56</v>
+      </c>
+      <c r="N47">
+        <v>0.48</v>
+      </c>
+      <c r="O47">
+        <v>0.52</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>0.01231412639405204</v>
+      </c>
+      <c r="L48">
+        <v>53</v>
+      </c>
+      <c r="M48">
+        <v>77</v>
+      </c>
+      <c r="N48">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>4251</v>
       </c>
     </row>
   </sheetData>
